--- a/outputs/PATTAYA2.xlsx
+++ b/outputs/PATTAYA2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Abi is making travel arrangements and wants to know where people are staying, which is a logical step toward ensuring she has accommodation and can coordinate with others. This aligns with her motivation to attend the conference successfully. Additionally, gathering this information aligns with her comprehensive information processing style, as it helps her form a complete understanding of her travel plans.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the conference and make travel arrangements, which includes knowing where people are staying. This information is crucial for her to plan her accommodation and ensure she is in a convenient location relative to the conference venue. Additionally, Abi's comprehensive information processing style means she would consider gathering all relevant details, including accommodation options, as a necessary step in her planning process.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations, Computer Self-Efficacy
-Why: The "Attending" section is clearly visible and labeled, which is likely to lead Abi to think that clicking on it will provide information relevant to her attendance, including where people are staying. The page is structured in a way that is easy to navigate, and the clear labeling helps Abi feel confident in taking this action. This aligns with her motivation to attend the conference and her comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly visible on the page, and it is reasonable for Abi to infer that information about where people are staying might be found under this section. Abi is motivated to find accommodation details, and her comprehensive information processing style would lead her to explore relevant sections like "Attending" to gather necessary information. The page layout and labeling provide sufficient guidance for her to take this action confidently.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style, Information Processing Style
-Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options, but no immediate feedback or clear indication that she has made progress toward her specific goal of finding out where people are staying. The dropdown menu contains many options, which might overwhelm Abi and make her unsure of which option to choose next. Given her low computer self-efficacy and preference for clear, guided steps, this could cause her to feel uncertain and hinder her progress. Additionally, Abi prefers comprehensive information processing, and this page does not provide sufficient immediate information to confirm she is on the right path.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Attending," Abi will see a dropdown menu with several relevant options, including "Accommodation." This confirms that she is on the right track and making progress toward her goal of finding out where people are staying. The dropdown menu provides clear and specific options related to her travel arrangements, which aligns with her comprehensive information processing style. This will help her feel confident that she is gathering the necessary information to make her travel plans.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Accommodation" option in the dropdown menu under "Attending" is clearly labeled, and it directly relates to Abi's goal of finding out where people are staying. This clear labeling provides a straightforward path for Abi to follow, aligning with her motivation to attend the conference and make travel arrangements. Additionally, the explicit mention of "Accommodation" helps Abi feel confident that this is the right step to take, supporting her comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending." Abi, who is motivated to find out where people are staying, will recognize that clicking on "Accommodation" is the logical next step to gather this information. The page layout and labeling provide clear guidance, making it easy for her to know what to do at this step. This aligns with her comprehensive information processing style, as she will systematically explore relevant sections to gather all necessary details for her travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Accommodation," Abi is taken to a page that provides detailed information about the conference hotel, including its amenities, location, and the benefits of staying there. This page also includes information on how to register for a room and the advantages of staying at the conference hotel, which aligns with Abi's comprehensive information processing style. The detailed and relevant information ensures that Abi knows she is making progress toward her goal and has the necessary details to make informed travel arrangements. This clarity and thoroughness support her motivation to attend the conference.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its amenities, location, and the benefits of staying there. The page also includes contact information for hotel reservations and options for sharing a room with another attendee. This comprehensive information aligns with Abi's motivation to find out where people are staying and her information processing style, which involves gathering all relevant details. The clear and detailed content on this page will help Abi feel confident that she is making progress toward her goal and has the information she needs to make her travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations, Computer Self-Efficacy
-Why: The page layout is straightforward and provides an initial set of relevant information about accommodation. Given Abi's comprehensive information processing style, she is likely to scroll down to ensure she has captured all the details. The clear headings and well-organized structure make it easy for Abi to understand that there might be more information available if she scrolls down. This action aligns with her motivation to gather all necessary information for her travel arrangements and supports her confidence in using familiar technology.</t>
+Facets: 2. Information Processing Style
+Why: The page provides a clear and detailed overview of the accommodation options, including the hotel name, amenities, and benefits of staying at the conference hotel. Abi, with her comprehensive information processing style, will naturally scroll down to ensure she gathers all relevant details. The layout and content of the page are straightforward and informative, making it easy for her to know that scrolling will likely reveal additional information she may need. This aligns with her approach to thoroughly understanding all aspects of her travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page already contains a substantial amount of detailed information about the accommodation, including the hotel name, amenities, registration details, and reasons to stay at the conference hotel. Scrolling down will help Abi confirm that she has captured all the relevant details. The organized and comprehensive presentation of the information aligns with Abi's motivation to make well-informed travel arrangements and her information processing style, ensuring she feels confident about making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling, Abi will find detailed information about the conference hotel, including its amenities, location, and the benefits of staying there. The page also provides contact information for hotel reservations and options for sharing a room with another attendee. This comprehensive information aligns with Abi's motivation to find out where people are staying and her information processing style, which involves gathering all relevant details. The clear and detailed content on this page will help Abi feel confident that she is making progress toward her goal and has the information she needs to make her travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi needs to know the duration of her stay to book accommodation appropriately and plan her trip effectively. This step aligns with her motivation to attend the conference and her comprehensive information processing style, as it involves gathering all necessary details to make informed decisions.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi is motivated to attend the conference and will need to determine the duration of her stay to book accommodation and plan her travel. Her comprehensive information processing style means she will consider all relevant details, including the conference schedule and any additional events, to decide the optimal number of days to stay. This step is essential for her to achieve her overall goal of attending the conference and making appropriate travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Program" option is clearly labeled at the top of the page, and it logically suggests that it will contain information about the schedule of events at the conference. Abi, who is motivated to attend the conference and needs to know the duration of her stay, is likely to recognize that clicking on "Program" will provide her with the details of the conference schedule. This action aligns with her comprehensive information processing style, as she needs to gather all relevant information to make an informed decision about how many days to stay.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi, who is motivated to determine how many days to stay at the conference, will recognize that the conference program will provide the necessary details about the schedule and events. Her comprehensive information processing style will lead her to explore the "Program" section to gather all relevant information about the conference's duration and activities. The page layout and labeling provide clear guidance, making it easy for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style, Information Processing Style
-Why: After clicking on "Program," Abi is presented with a dropdown menu containing multiple options, such as "Complete Program," "Week Overview," "Industry Program," etc. While these options are relevant, there is no immediate feedback or clear guidance on which specific option will provide the comprehensive schedule Abi needs to determine how many days to stay. This lack of explicit direction may cause uncertainty for Abi, given her low computer self-efficacy and preference for clear, guided steps. The multiple choices without clear distinctions might overwhelm her, hindering her confidence that she is making progress toward her goal and has all the information she needs.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Program," Abi will see a dropdown menu with several relevant options, including "Complete Program," "Week Overview," and "Filter by Day." These options provide clear pathways to detailed information about the conference schedule. Abi, who is motivated to determine how many days to stay at the conference, will recognize that exploring these options will help her gather the necessary details. The comprehensive and organized presentation of the program options aligns with her information processing style, allowing her to feel confident that she is making progress toward her goal and will get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Week Overview" option in the dropdown under "Program" is clearly labeled and suggests it will provide a summary of the events for the entire week. This aligns with Abi's goal of determining how many days to stay at the conference. Given her motivation to attend the conference and make well-informed travel arrangements, Abi is likely to recognize that clicking on "Week Overview" will help her gather the necessary information. The clear labeling helps her feel confident in taking this action, which supports her comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." Abi, who is motivated to determine how many days to stay at the conference, will recognize that clicking on "Week Overview" will provide a summary of the conference schedule. This aligns with her comprehensive information processing style, as she will systematically explore relevant sections to gather all necessary details. The page layout and labeling provide clear guidance, making it easy for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Week Overview," Abi is presented with a detailed schedule that clearly outlines the events, workshops, and main conference activities for each day. This comprehensive overview provides Abi with all the necessary information to determine how many days to stay at the conference. The clear, organized presentation of the schedule aligns with Abi's comprehensive information processing style and her motivation to make well-informed travel arrangements. Abi will know that she did the right thing and is making progress toward her goal because she can see the full scope of the conference activities and plan her stay accordingly.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed schedule of the conference week, including co-located events, workshops, and the main conference sessions. This comprehensive overview allows Abi to see the entire conference timeline at a glance, helping her determine how many days she needs to stay. The clear and organized presentation of the schedule aligns with her motivation to plan her stay and her comprehensive information processing style. This will help her feel confident that she is making progress toward her goal and has the information she needs to make informed travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Learning Style
-Why: While the "Tracks" option is available at the top of the page, Abi may not immediately recognize that going up the page and clicking on "Tracks" will provide additional information relevant to determining how many days to stay at the conference. The "Week Overview" page already provides a substantial amount of detailed information, and it might not be clear to Abi that she needs to look at the tracks separately. Given her low computer self-efficacy and preference for clear, guided steps, she might feel uncertain about what additional information she might find under "Tracks" and whether it is necessary for her current goal. This lack of clear direction may cause hesitation and hinder her from taking this action confidently.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: While the "Tracks" option is visible in the navigation menu, Abi may not immediately understand that clicking on "Tracks" will provide additional details relevant to determining how many days to stay at the conference. Given her low computer self-efficacy, she might be hesitant to click on an option without clear indication of what information it will provide. Additionally, Abi prefers process-oriented learning and may not feel confident in exploring unfamiliar sections without explicit guidance. The page does not provide enough context to assure her that clicking on "Tracks" is the right action to take.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Learning Style
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu containing numerous options, but there is no immediate feedback or clear indication that she is making progress toward her goal of determining how many days to stay at the conference. The sheer number of options can be overwhelming and may cause confusion, especially given Abi's low computer self-efficacy and preference for clear, guided steps. Additionally, the dropdown menu does not provide comprehensive information at a glance, which does not align with Abi's comprehensive information processing style. This may leave her uncertain about whether she has done the right thing and whether she is on the right path to getting all the information she needs.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Tracks," Abi lands on a page with a dropdown menu listing various tracks and co-hosted conferences. While this provides a comprehensive list of options, it may not immediately help Abi determine how many days to stay at the conference. The information is not organized in a way that directly answers her question about the duration of her stay. Given her comprehensive information processing style, Abi might feel overwhelmed by the numerous options and unsure about which track to explore for the specific information she needs. Additionally, her low computer self-efficacy might make her hesitant to navigate through multiple tracks without clear guidance, leading to uncertainty about whether she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA2.xlsx
+++ b/outputs/PATTAYA2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is making travel arrangements and knowing where people are staying is a logical step in this process. This aligns with her motivation to attend the conference and her comprehensive information processing style, as she would want to gather all relevant information to make informed decisions about her travel and accommodation.</t>
+Facets: 1. Motivations
+Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. This information could help her decide on accommodation options and enhance her conference experience.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly visible and likely to contain relevant information about accommodations and where people are staying. Abi is motivated to find out where people are staying as part of her travel arrangements, and the page layout supports her comprehensive information processing style by providing a clear and organized menu. This makes it straightforward for her to know that clicking on "Attending" is the next logical step.</t>
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It is likely to contain information about accommodations, which aligns with her motivation to know where people are staying. The page layout supports her comprehensive information processing style, making it easy for her to identify the relevant section to click on.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on "Attending," Abi is presented with a dropdown menu containing multiple options. While "Accommodation" is listed, it is not immediately clear which option will provide the specific information she needs about where people are staying. Abi's comprehensive information processing style means she needs clear and direct information to feel confident she is making progress. Additionally, her low computer self-efficacy and preference for process-oriented learning make it less likely she will feel assured she did the right thing without explicit guidance. The dropdown menu might overwhelm her with choices, leading to uncertainty.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This confirms she is on the right track and making progress toward her goal. The clear labeling supports her comprehensive information processing style, helping her feel confident in her actions.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Accommodation" as an option. Abi is motivated to find out where people are staying, and the term "Accommodation" directly aligns with her subgoal. The page is organized in a way that supports her comprehensive information processing style, making it straightforward for her to identify and click on the "Accommodation" link to proceed with her task.</t>
+Why: The "Accommodation" option is clearly visible in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. This clear labeling aligns with her motivation and supports her comprehensive information processing style, making it easy for her to know what to do next.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This aligns with her motivation to find out where people are staying and supports her comprehensive information processing style by offering clear and relevant details. The page also includes information on how to register for a room and the advantages of staying at the conference hotel, which helps Abi feel confident that she is making progress toward her goal and has the information she needs.</t>
+Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its benefits and registration details. This confirms she is making progress toward her goal of finding out where people are staying. The comprehensive information provided aligns with her information processing style, ensuring she gets all the details she needs.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is well-organized and provides a clear overview of the accommodation details. Abi's comprehensive information processing style means she is likely to scroll down to ensure she has all the relevant information. The page layout and content are conducive to this behavior, as it includes detailed sections on hotel registration, the benefits of staying at the conference hotel, and the hotel's address. This makes it straightforward for Abi to know that scrolling will help her gather all the necessary information.</t>
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she gathers all necessary details about where people are staying.</t>
         </is>
       </c>
     </row>
@@ -479,17 +479,17 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling, Abi will find detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This aligns with her motivation to find out where people are staying and supports her comprehensive information processing style by offering clear and relevant details. The page provides all the necessary information she needs to make an informed decision about her accommodation, confirming that she did the right thing and is making progress toward her goal.</t>
+Facets: 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of understanding where people are staying. The comprehensive details provided align with her information processing style, ensuring she gets all the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The subgoal of determining how many days to stay at the conference is related to planning the overall trip, but it is not directly addressed by the information on the "Accommodation" page. This page focuses on where to stay rather than the duration of the stay. Abi's comprehensive information processing style means she would need specific details about the conference schedule or program to decide on the number of days to stay. Therefore, she would not have thought of this as a step toward achieving the overall use case based on the information provided on this page.</t>
+          <t>Answer: YES
+Facets: 1. Motivations
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi would likely consider this as part of her planning process to ensure she attends all relevant sessions and events, aligning with her motivation to attend the conference effectively.</t>
         </is>
       </c>
     </row>
@@ -498,52 +498,52 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to determine how many days to stay at the conference, and the "Program" section is likely to contain the conference schedule, which is essential for making this decision. The page layout includes a clear navigation menu with "Program" as an option, making it straightforward for Abi to identify and click on it. This aligns with her comprehensive information processing style, as she would recognize that the program details are necessary to plan the duration of her stay.</t>
+Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her attendance effectively. The page layout supports her comprehensive information processing style, making it clear what action to take next.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Program," Abi sees a dropdown with detailed options, including specific dates and program overviews. This confirms she is making progress toward her goal of determining how many days to stay. The comprehensive options align with her information processing style, providing the necessary details to make an informed decision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Clicking on "Week Overview" is a logical step for Abi to understand the overall schedule, helping her decide how many days to stay. The option is clearly labeled, aligning with her motivation and supporting her comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events, helping Abi determine how many days to stay. This confirms she is making progress toward her goal. The detailed layout aligns with her comprehensive information processing style, ensuring she gets all the information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 3. Attitude Toward Risk, 4. Computer Self-Efficacy
+Why: The page does not provide clear guidance or indication that clicking on "Tracks" will help Abi determine how many days to stay. Without explicit information or instructions, Abi may be hesitant to take this action due to her low confidence in unfamiliar tasks and risk-averse nature.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Program," Abi is presented with a dropdown menu containing multiple options related to the conference schedule. While these options are likely to contain the information she needs, the variety of choices might overwhelm her. Abi's comprehensive information processing style means she needs clear and direct guidance to feel confident she is making progress. Additionally, her low computer self-efficacy may cause her to feel uncertain about which specific option to choose to find the complete schedule. Without explicit instructions or a clear indication of which link will provide the full program details, Abi may struggle to know she did the right thing and is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to determine how many days to stay at the conference, and the "Week Overview" option in the dropdown menu is likely to provide a summary of the conference schedule. The term "Week Overview" is clear and directly suggests that it will offer a broad view of the events happening throughout the week, which aligns with Abi's need to plan her stay. The page layout and the dropdown menu are organized in a way that supports her comprehensive information processing style, making it straightforward for her to identify and click on "Week Overview" to proceed with her task.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed schedule of the conference events for each day. This aligns with her motivation to determine how many days to stay at the conference. The page layout is clear and organized, presenting the information in a way that supports her comprehensive information processing style. The visual representation of the schedule allows Abi to easily see the events happening each day, helping her make an informed decision about the duration of her stay. This confirms that she did the right thing and is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Week Overview" page already provides a comprehensive schedule of the conference events, which should help Abi determine how many days to stay. Going up the page to click on "Tracks" might not be an obvious or necessary step for her. Abi's comprehensive information processing style means she would likely rely on the detailed schedule already presented. Additionally, her low computer self-efficacy might make her hesitant to navigate away from a page that already seems to provide the needed information. Therefore, she may not know that clicking on "Tracks" is the right action to take at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu containing numerous options related to different tracks and sessions at the conference. While these options might provide detailed information about specific sessions, the page does not directly help her determine how many days to stay at the conference. Abi's comprehensive information processing style means she needs clear and direct information to feel confident she is making progress. Additionally, her low computer self-efficacy may cause her to feel uncertain about which specific track to choose to find the overall schedule. Therefore, she may not know that she did the right thing and is making progress toward her goal.</t>
+Why: The dropdown menu under "Tracks" provides a list of options, but it may not clearly indicate how it helps determine the number of days to stay. Abi might not feel confident that this action directly contributes to her goal, as the connection between tracks and her subgoal isn't explicit. This could lead to uncertainty about her progress.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA2.xlsx
+++ b/outputs/PATTAYA2.xlsx
@@ -424,36 +424,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. This information could help her decide on accommodation options and enhance her conference experience.</t>
+          <t>Answer: NO 
+Facets: 1.Motivations 
+Why: Abi just wants to make traveling arrangements. This does not include getting information about where other attendees are staying.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It is likely to contain information about accommodations, which aligns with her motivation to know where people are staying. The page layout supports her comprehensive information processing style, making it easy for her to identify the relevant section to click on.</t>
+          <t>Answer: NO 
+Facets: 4. Computer Self-Efficacy
+Why: Abi struggles with unfamiliar technology and thus may not understand the label "attending". She needs more information like "click here to find where people are staying"</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This confirms she is on the right track and making progress toward her goal. The clear labeling supports her comprehensive information processing style, helping her feel confident in her actions.</t>
+          <t>Answer: NO 
+Facets: 3. Attitude towards Risk
+Why: There is no information on the page about what will happen after clicking "attending". Abi is risk averse and therefore will not click unless she knows more about what will happen.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly visible in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. This clear labeling aligns with her motivation and supports her comprehensive information processing style, making it easy for her to know what to do next.</t>
+          <t>Answer: YES 
+Facets: 1.Motivations 2.Attitude towards Risk
+Why: The page answers the question "Where are people staying?" and provides a link to more information. Abi is motivated to find this information and will be willing to take the risk of clicking on the link since she knows what will happen.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its benefits and registration details. This confirms she is making progress toward her goal of finding out where people are staying. The comprehensive information provided aligns with her information processing style, ensuring she gets all the details she needs.</t>
+Facets: 1.Motivations 2. Attitude towards Risk
+Why: The page answers the question "Where are people staying?"</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she gathers all necessary details about where people are staying.</t>
+Why: Abi is comprehensive so scrolling aligns with her facets of processing information in a batch of activities to gather information.</t>
         </is>
       </c>
     </row>
@@ -479,71 +479,71 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of understanding where people are staying. The comprehensive details provided align with her information processing style, ensuring she gets all the information she needs.</t>
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi tends to use a comprehensive information processing style when they need to get more information. Abi's style is "bursty"; first, they read a lot and then act on it in a batch of activities. Also, after scrolling, The page answers the question "Where are people staying?"</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi would likely consider this as part of her planning process to ensure she attends all relevant sessions and events, aligning with her motivation to attend the conference effectively.</t>
+          <t>Answer: YES 
+Facets: 1.Motivations 2. Attitude towards Risk
+Why: Abi is motivated to make travel arrangements and this includes deciding how many days to stay at the conference. Abi has decided to attend the conference and is therefore willing to take the risk of making travel arrangements.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her attendance effectively. The page layout supports her comprehensive information processing style, making it clear what action to take next.</t>
+          <t>Answer: NO 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi is very unlikely to click on the “program” button and read through the whole program book. It is very complicated and hard to process the information</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown with detailed options, including specific dates and program overviews. This confirms she is making progress toward her goal of determining how many days to stay. The comprehensive options align with her information processing style, providing the necessary details to make an informed decision.</t>
+          <t>Answer: NO 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi is very unlikely to click on the “program” button and read through the whole program book. It is very complicated and hard to process the information</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Week Overview" is a logical step for Abi to understand the overall schedule, helping her decide how many days to stay. The option is clearly labeled, aligning with her motivation and supporting her comprehensive information processing style.</t>
+          <t>Answer: NO 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi is very unlikely to click on the “week overview” button and read through the whole program book. It is very complicated and hard to process the information</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events, helping Abi determine how many days to stay. This confirms she is making progress toward her goal. The detailed layout aligns with her comprehensive information processing style, ensuring she gets all the information she needs.</t>
+          <t>Answer: YES 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: The page gives the information about overview of the conference, which provide the information about dates of the conference. Also, Abi is comfortable with comprehensive information processing techniques</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 3. Attitude Toward Risk, 4. Computer Self-Efficacy
-Why: The page does not provide clear guidance or indication that clicking on "Tracks" will help Abi determine how many days to stay. Without explicit information or instructions, Abi may be hesitant to take this action due to her low confidence in unfamiliar tasks and risk-averse nature.</t>
+          <t>Answer: YES 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi is very unlikely to go up the page and click on the “tracks” button and read through the whole program book. It is very complicated and hard to process the information. Also, Abi doesn't know the implication of going up the page on a website.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The dropdown menu under "Tracks" provides a list of options, but it may not clearly indicate how it helps determine the number of days to stay. Abi might not feel confident that this action directly contributes to her goal, as the connection between tracks and her subgoal isn't explicit. This could lead to uncertainty about her progress.</t>
+          <t>Answer: NO 
+Facets: 2. Information Processing Style 3.Computer Self-Efficacy
+Why: Abi is very unlikely to go up the page and click on the “tracks” button and read through the whole program book. It is very complicated and hard to process the information</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA2.xlsx
+++ b/outputs/PATTAYA2.xlsx
@@ -424,36 +424,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: NO 
-Facets: 1.Motivations 
-Why: Abi just wants to make traveling arrangements. This does not include getting information about where other attendees are staying.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is attending the conference and would likely want to know where other attendees are staying to make her travel arrangements more convenient. This aligns with her motivation to attend the event and her comprehensive information processing style, as knowing where others are staying could help her make informed decisions about her own accommodations.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO 
-Facets: 4. Computer Self-Efficacy
-Why: Abi struggles with unfamiliar technology and thus may not understand the label "attending". She needs more information like "click here to find where people are staying"</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists "Attending" with related links, including "Accommodation," which aligns with Abi's goal of finding out where people are staying. The information is organized in a way that supports her comprehensive information processing style, making it likely she will know to click on "Attending" to find relevant details.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO 
-Facets: 3. Attitude towards Risk
-Why: There is no information on the page about what will happen after clicking "attending". Abi is risk averse and therefore will not click unless she knows more about what will happen.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation indicates she is making progress toward her goal, and the options provided align with her comprehensive information processing style, helping her feel confident she is on the right track.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: YES 
-Facets: 1.Motivations 2.Attitude towards Risk
-Why: The page answers the question "Where are people staying?" and provides a link to more information. Abi is motivated to find this information and will be willing to take the risk of clicking on the link since she knows what will happen.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu clearly lists "Accommodation," which directly relates to Abi's goal of finding out where people are staying. This straightforward labeling aligns with her motivation and comprehensive information processing style, making it easy for her to know what to do next.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivations 2. Attitude towards Risk
-Why: The page answers the question "Where are people staying?"</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its benefits and registration details. This aligns with her goal of finding out where people are staying and provides comprehensive information, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Abi is comprehensive so scrolling aligns with her facets of processing information in a batch of activities to gather information.</t>
+Why: The page provides detailed information about the accommodation, and scrolling is a natural action to view more content. Abi's comprehensive information processing style supports her motivation to scroll and gather all necessary details about where people are staying.</t>
         </is>
       </c>
     </row>
@@ -479,71 +479,71 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi tends to use a comprehensive information processing style when they need to get more information. Abi's style is "bursty"; first, they read a lot and then act on it in a batch of activities. Also, after scrolling, The page answers the question "Where are people staying?"</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of understanding where people are staying, and the comprehensive details align with her information processing style.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES 
-Facets: 1.Motivations 2. Attitude towards Risk
-Why: Abi is motivated to make travel arrangements and this includes deciding how many days to stay at the conference. Abi has decided to attend the conference and is therefore willing to take the risk of making travel arrangements.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi would consider this step important to ensure she can attend all relevant sessions and events, aligning with her motivation to attend the conference and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: NO 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi is very unlikely to click on the “program” button and read through the whole program book. It is very complicated and hard to process the information</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page focuses on accommodation details and doesn't provide direct guidance or information about the conference program. Abi might not feel confident about clicking "Program" without explicit instructions or context, as her computer self-efficacy is low and she prefers process-oriented learning.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: NO 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi is very unlikely to click on the “program” button and read through the whole program book. It is very complicated and hard to process the information</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Program," Abi sees a dropdown with detailed options, including specific dates and a complete program overview. This helps her understand the conference schedule, confirming she is making progress toward deciding how many days to stay. The clear structure aligns with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: NO 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi is very unlikely to click on the “week overview” button and read through the whole program book. It is very complicated and hard to process the information</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly labeled in the dropdown menu under "Program," which directly relates to Abi's goal of determining how many days to stay. This aligns with her motivation and comprehensive information processing style, making it easy for her to know what to do next.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Answer: YES 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: The page gives the information about overview of the conference, which provide the information about dates of the conference. Also, Abi is comfortable with comprehensive information processing techniques</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal. The organized layout aligns with her comprehensive information processing style, ensuring she gets all the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: YES 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi is very unlikely to go up the page and click on the “tracks” button and read through the whole program book. It is very complicated and hard to process the information. Also, Abi doesn't know the implication of going up the page on a website.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page provides a comprehensive overview of the week's events, which should help Abi determine how many days to stay. Clicking on "Tracks" might not be immediately clear as a necessary step, especially without explicit guidance. Abi's low computer self-efficacy and preference for process-oriented learning might make her hesitant to explore further without clear instructions.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Answer: NO 
-Facets: 2. Information Processing Style 3.Computer Self-Efficacy
-Why: Abi is very unlikely to go up the page and click on the “tracks” button and read through the whole program book. It is very complicated and hard to process the information</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The dropdown menu under "Tracks" provides a list of options, but it may not directly help Abi determine how many days to stay. Without clear guidance or context, Abi might not feel confident that this action is helping her progress toward her goal, given her low computer self-efficacy and preference for structured learning.</t>
         </is>
       </c>
     </row>
